--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_South Georgia (Islas Georgias del Sur).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/White-chinned Petrel_South Georgia (Islas Georgias del Sur).xlsx
@@ -2949,13 +2949,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E62FB9A8-70DA-4EE9-BA68-94D6F3C882B9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB57205F-33A3-4DED-9818-B78FB7D1F0E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C508C9-2696-4896-8E24-1FF26DB18E85}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B4B348E-131E-42E9-B2BB-9A89A196917A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52F3932D-2E6F-4B2D-84E0-AD9710A0DA20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB757125-2A7D-4580-85C2-C3DDF129A0A1}"/>
 </file>